--- a/现金流量表/688679.xlsx
+++ b/现金流量表/688679.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -739,56 +739,58 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-04 00:00:00</t>
+          <t>2020-12-18 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-13557203.61</v>
+        <v>-45009866.89</v>
       </c>
       <c r="P2" t="n">
-        <v>-16.747079544</v>
+        <v>-90.75140966959999</v>
       </c>
       <c r="Q2" t="n">
-        <v>357588812.59</v>
+        <v>344153411.22</v>
       </c>
       <c r="R2" t="n">
-        <v>441.7259237803</v>
+        <v>693.9013458348001</v>
       </c>
       <c r="S2" t="n">
-        <v>54475343.66</v>
+        <v>53772301.73</v>
       </c>
       <c r="T2" t="n">
-        <v>67.2928532836</v>
+        <v>108.418720613</v>
       </c>
       <c r="U2" t="n">
-        <v>-63581301.17</v>
+        <v>-139974509.03</v>
       </c>
       <c r="V2" t="n">
-        <v>-78.5413525413</v>
+        <v>-282.224429664</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>35550124.17</v>
+        <v>101327631.52</v>
       </c>
       <c r="Z2" t="n">
-        <v>43.9147168105</v>
+        <v>204.3024348727</v>
       </c>
       <c r="AA2" t="n">
-        <v>-3814138.78</v>
+        <v>135387496.87</v>
       </c>
       <c r="AB2" t="n">
-        <v>-4.7115679146</v>
+        <v>272.9758393336</v>
       </c>
       <c r="AC2" t="n">
-        <v>-80952643.56</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>-49596879.05</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-158.7750411376</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>

--- a/现金流量表/688679.xlsx
+++ b/现金流量表/688679.xlsx
@@ -744,52 +744,56 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>-45009866.89</v>
+        <v>139971608.37</v>
       </c>
       <c r="P2" t="n">
-        <v>-90.75140966959999</v>
+        <v>88.16147747630001</v>
       </c>
       <c r="Q2" t="n">
-        <v>344153411.22</v>
+        <v>832942020.22</v>
       </c>
       <c r="R2" t="n">
-        <v>693.9013458348001</v>
+        <v>524.6306733901</v>
       </c>
       <c r="S2" t="n">
-        <v>53772301.73</v>
+        <v>87154157.69</v>
       </c>
       <c r="T2" t="n">
-        <v>108.418720613</v>
+        <v>54.8942703426</v>
       </c>
       <c r="U2" t="n">
-        <v>-139974509.03</v>
+        <v>-118854487.41</v>
       </c>
       <c r="V2" t="n">
-        <v>-282.224429664</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+        <v>-74.8608045358</v>
+      </c>
+      <c r="W2" t="n">
+        <v>28934.24</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0182243055</v>
+      </c>
       <c r="Y2" t="n">
-        <v>101327631.52</v>
+        <v>83215285.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>204.3024348727</v>
+        <v>52.4133613757</v>
       </c>
       <c r="AA2" t="n">
-        <v>135387496.87</v>
+        <v>137650191.45</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.9758393336</v>
+        <v>86.69932705950001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-49596879.05</v>
+        <v>158767312.41</v>
       </c>
       <c r="AD2" t="n">
-        <v>-158.7750411376</v>
+        <v>3839.7789010092</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
